--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>司马炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李世民</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,6 +460,10 @@
   </si>
   <si>
     <t>曾国藩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +822,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -975,34 +975,34 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1010,34 +1010,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1045,34 +1045,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1080,34 +1080,34 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,34 +1115,34 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1150,34 +1150,34 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1185,34 +1185,34 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1220,34 +1220,34 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -1255,34 +1255,34 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1302,19 +1302,19 @@
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>12</v>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>用途：用来记忆大量数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,54 @@
   </si>
   <si>
     <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两位数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +529,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -507,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,6 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -819,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -832,74 +890,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1">
         <v>6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="K3" s="2">
+      <c r="J3" s="1">
         <v>8</v>
       </c>
-      <c r="L3" s="2">
+      <c r="K3" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -909,9 +970,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -921,402 +985,468 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H10" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I10" s="2">
         <v>7</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J10" s="2">
         <v>8</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K10" s="2">
         <v>9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L10" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,22 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伊尹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周公旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外婆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,30 +175,6 @@
     <t>矶抚</t>
   </si>
   <si>
-    <t>萧何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王猛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房玄龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王安石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张居正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾国藩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,14 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油粑子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鼠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,14 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绅士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感冒灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耳环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恶霸阿龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闹钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,14 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌纱帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青年节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蜗牛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二流子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麒麟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,23 +375,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恶灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>再搞一套百家姓的记忆桩！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.shangyijiaoyu.com/h-nd-724.html</t>
+  </si>
+  <si>
+    <t>二流中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二逼华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一重工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃榴莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新青年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴三桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺幺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石榴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矶娘娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿茅药酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药膳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八罗汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七伤拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,22 +860,22 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -907,39 +907,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -951,9 +951,9 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -966,7 +966,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -998,328 +998,328 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="1">
+        <v>87</v>
+      </c>
+      <c r="G14" s="4">
         <v>360</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>109</v>
+      <c r="H14" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>6</v>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>用途：用来记忆大量数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,46 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舅妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大伯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姐姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>罗杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>岳灵珊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闹钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,22 +287,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蜗牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同城网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡椒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>再搞一套百家姓的记忆桩！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃榴莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胃泰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>儿童</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鹦鹉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +387,74 @@
   </si>
   <si>
     <t>七伤拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱莲说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五柳宗元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜溜球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用数字映射可迅速记忆三十六计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +559,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +636,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,25 +845,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -907,39 +895,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -951,9 +939,9 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -966,7 +954,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -998,328 +986,320 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G14" s="4">
         <v>360</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -1336,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>6</v>
@@ -1355,12 +1335,17 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>用途：用来记忆大量数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石榴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石矶娘娘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老板娘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三菱汽车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +447,30 @@
   </si>
   <si>
     <t>用数字映射可迅速记忆三十六计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石榴姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造反啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +864,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -997,28 +1013,28 @@
         <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -1051,10 +1067,10 @@
         <v>77</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1069,7 +1085,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>55</v>
@@ -1084,13 +1100,13 @@
         <v>57</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1150,16 +1166,16 @@
         <v>65</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>69</v>
@@ -1169,27 +1185,35 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="I13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1203,7 +1227,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>71</v>
@@ -1212,7 +1236,7 @@
         <v>360</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>72</v>
@@ -1221,7 +1245,7 @@
         <v>79</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>70</v>
@@ -1345,7 +1369,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>用途：用来记忆大量数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绅士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三鹿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +467,18 @@
   </si>
   <si>
     <t>牛角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用二十四节气作为记忆场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用数字映射迅速记忆64卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士奥巴马</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1007,34 +1015,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -1043,34 +1051,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1079,34 +1087,34 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1151,34 +1159,34 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1186,34 +1194,34 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1224,31 +1232,31 @@
         <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="4">
         <v>360</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1361,15 +1369,25 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -16,10 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
-    <t>用途：用来记忆大量数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸣人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>守鹤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火腿肠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鼠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,14 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同城网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麒麟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新青年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可用二十四节气作为记忆场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +451,34 @@
   </si>
   <si>
     <t>绅士奥巴马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六道仙人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同城杨幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴琳小师妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角扳手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途：用来记忆大量数字，文章，诗词，要点等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,20 +871,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -921,34 +921,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1015,34 +1015,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -1051,34 +1051,34 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1087,34 +1087,34 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1123,34 +1123,34 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -1159,34 +1159,34 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1194,34 +1194,34 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1229,34 +1229,34 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4">
         <v>360</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>16</v>
@@ -1285,13 +1285,13 @@
         <v>17</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M15" s="1"/>
     </row>
@@ -1300,34 +1300,34 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1336,58 +1336,58 @@
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>黄帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卢沟桥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +475,14 @@
   </si>
   <si>
     <t>用途：用来记忆大量数字，文章，诗词，要点等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可记忆《将苑》46篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +530,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -548,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +577,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -869,17 +885,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1015,34 +1031,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -1066,19 +1082,19 @@
         <v>58</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1087,16 +1103,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>51</v>
@@ -1108,13 +1124,13 @@
         <v>53</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1161,32 +1177,32 @@
       <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1194,34 +1210,34 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="J13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1229,31 +1245,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G14" s="4">
         <v>360</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>64</v>
@@ -1327,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1369,25 +1385,30 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -888,7 +888,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
       <c r="D13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F13" s="4" t="s">

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -147,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耳朵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红旗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鱼钩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拐杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>葫芦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,18 +414,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苗医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>儿童</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可用二十四节气作为记忆场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>琵琶行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>六道仙人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六角扳手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用途：用来记忆大量数字，文章，诗词，要点等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +455,34 @@
   </si>
   <si>
     <t>可记忆《将苑》46篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +539,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -561,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,6 +601,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,23 +919,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -935,39 +967,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -979,9 +1011,9 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -994,7 +1026,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -1026,256 +1058,256 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="I13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G14" s="4">
         <v>360</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>62</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1311,7 +1343,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1343,72 +1375,72 @@
         <v>26</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>黄帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七伤拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爱莲说</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>榴莲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用数字映射可迅速记忆三十六计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴琳小师妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用途：用来记忆大量数字，文章，诗词，要点等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +467,26 @@
   </si>
   <si>
     <t>小思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武林金庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热气球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,14 +924,14 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -975,10 +979,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -987,7 +991,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -1078,7 +1082,7 @@
         <v>76</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>74</v>
@@ -1123,10 +1127,10 @@
         <v>67</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1141,10 +1145,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>48</v>
@@ -1156,13 +1160,13 @@
         <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>70</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1222,54 +1226,54 @@
         <v>58</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>107</v>
+      <c r="L12" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>112</v>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1277,31 +1281,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>81</v>
+      <c r="E14" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="4">
-        <v>360</v>
+        <v>105</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>61</v>
@@ -1375,7 +1379,7 @@
         <v>26</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1383,34 +1387,34 @@
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
@@ -1425,22 +1429,22 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六道仙人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同城杨幂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,6 +483,10 @@
   </si>
   <si>
     <t>热气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,14 +924,14 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -979,10 +979,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -991,7 +991,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -1232,13 +1232,13 @@
         <v>85</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1249,7 +1249,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>89</v>
@@ -1258,7 +1258,7 @@
         <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>91</v>
@@ -1267,10 +1267,10 @@
         <v>90</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>92</v>
@@ -1287,13 +1287,13 @@
         <v>63</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>93</v>
@@ -1302,10 +1302,10 @@
         <v>62</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>61</v>
@@ -1379,7 +1379,7 @@
         <v>26</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>黄帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>珊瑚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,99 +298,295 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>幺儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矶娘娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药膳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八罗汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱莲说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五柳宗元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜溜球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用数字映射可迅速记忆三十六计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石榴姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用二十四节气作为记忆场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用数字映射迅速记忆64卦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士奥巴马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同城杨幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途：用来记忆大量数字，文章，诗词，要点等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可记忆《将苑》46篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武林金庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>幺幺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幺儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石矶娘娘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿茅药酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹦鹉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药膳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八罗汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱莲说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三菱汽车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二舅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五柳宗元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>律师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硫酸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溜溜球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榴莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用数字映射可迅速记忆三十六计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石榴姐</t>
+    <t>牌神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学说人话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二特征用于一个记忆桩记忆两个点的场景：第一个点是名称，第二个点是特征。如此可以区分先后顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三刀流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放牛娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好多手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：每个映射包含两个信息，先是主体名称，然后是特征【颜色，性格，职业，等独一无二的特点】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90度鞠躬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大头娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你居然敢来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假寐暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻涕虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色独角仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃园结义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮瞎眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包租婆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,91 +594,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>儿童</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用二十四节气作为记忆场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用数字映射迅速记忆64卦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士奥巴马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同城杨幂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途：用来记忆大量数字，文章，诗词，要点等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可记忆《将苑》46篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大喇叭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驴儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琵琶女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海贼旗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尿壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武林金庸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热气球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸣人</t>
+    <t>嫩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要怜惜我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打人好痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反着躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三过家门而不入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭六国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路不拾遗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马拉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背媳妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色大涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浑身闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒液喷涌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵败滑铁卢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捉贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼瞎了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头晕目眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好臭好香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红屁股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三金四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个尾巴跑得快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人小鬼大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升天成佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强身健体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6万岁了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,15 +781,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -566,6 +801,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -575,10 +817,96 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -588,32 +916,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -921,21 +1334,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -978,11 +1394,11 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>112</v>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -990,8 +1406,8 @@
       <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>111</v>
+      <c r="I4" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -1015,8 +1431,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:13" ht="14.5" thickBot="1">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1"/>
@@ -1030,427 +1446,693 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="C7" s="2">
+    <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="25">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="25">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="25">
         <v>6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
         <v>7</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="25">
         <v>8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="8">
         <v>9</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="2">
+    <row r="8" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="J8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F12" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B18" s="9">
+        <v>6</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B19" s="9"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B20" s="15">
+        <v>7</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B22" s="9">
+        <v>8</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B24" s="15">
+        <v>9</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.5" thickTop="1"/>
+    <row r="29" spans="1:13">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>101</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/编码/数字矩阵映射.xlsx
+++ b/编码/数字矩阵映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>黄帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,299 +438,463 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>海贼旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺幺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学说人话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二特征用于一个记忆桩记忆两个点的场景：第一个点是名称，第二个点是特征。如此可以区分先后顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三刀流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好多手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：每个映射包含两个信息，先是主体名称，然后是特征【颜色，性格，职业，等独一无二的特点】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90度鞠躬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大头娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你居然敢来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假寐暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃园结义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮瞎眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包租婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造反啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要怜惜我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打人好痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三过家门而不入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭六国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马拉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背媳妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色大涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浑身闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒液喷涌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵败滑铁卢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捉贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼瞎了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头晕目眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好臭好香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红屁股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三金四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人小鬼大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升天成佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6万岁了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封神榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摔酒杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战蚩尤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又黑又脆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石狮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹琵琶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制水流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变金箍棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最强格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知善恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重分身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏弄猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝醉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五棵树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智取生辰纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂出窍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行毒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘上天空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色领结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四种表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送子神兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂耍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿在身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙眼转圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山顽石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭中楚王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示威游行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤鲜味美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩斑斓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找小林子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吊车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏血病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观音坐莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007作息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被美制裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗歹徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜蛇头饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开保险柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流鼻血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>伞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海贼旗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尿壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武林金庸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热气球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸣人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幺幺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学说人话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二特征用于一个记忆桩记忆两个点的场景：第一个点是名称，第二个点是特征。如此可以区分先后顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三刀流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>super</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橡胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放牛娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好多手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海贼王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：每个映射包含两个信息，先是主体名称，然后是特征【颜色，性格，职业，等独一无二的特点】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90度鞠躬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大头娃娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你居然敢来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变身金箍棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假寐暴走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻涕虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩色独角仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃园结义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮瞎眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包租婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造反啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嫩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要怜惜我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打人好痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反着躲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三过家门而不入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灭六国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路不拾遗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马拉的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背媳妇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色大涨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浑身闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒液喷涌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵败滑铁卢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渴死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捉贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼瞎了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头晕目眩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好臭好香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红屁股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副总理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金三金四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个尾巴跑得快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台风眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人小鬼大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升天成佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强身健体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6万岁了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +902,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,21 +948,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,12 +1075,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,9 +1135,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,28 +1145,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1337,7 +1471,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1394,11 +1528,11 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>108</v>
+      <c r="E4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -1406,8 +1540,8 @@
       <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>107</v>
+      <c r="I4" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
@@ -1447,658 +1581,740 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1">
-      <c r="B7" s="7"/>
-      <c r="C7" s="15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>6</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>7</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>8</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>9</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="H9" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B19" s="7"/>
+      <c r="C19" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B20" s="13">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B22" s="7">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B23" s="7"/>
+      <c r="C23" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B24" s="13">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B10" s="9">
+      <c r="F25" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.5" thickTop="1">
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B12" s="15">
+      <c r="E26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23" t="s">
+      <c r="F26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="23" t="s">
+      <c r="I27" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B14" s="9">
-        <v>4</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="11" t="s">
+      <c r="K27" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="L15" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B16" s="15">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+      <c r="L27" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B18" s="9">
-        <v>6</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B19" s="9"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B20" s="15">
-        <v>7</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B22" s="9">
-        <v>8</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B24" s="15">
-        <v>9</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.5" thickTop="1">
-      <c r="B26" s="9">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.5" thickBot="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="14.5" thickTop="1"/>
     <row r="29" spans="1:13">
       <c r="B29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:13">
